--- a/portal_data.xlsx
+++ b/portal_data.xlsx
@@ -1,37 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonSetup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>news_title</t>
+  </si>
+  <si>
+    <t>news_desc</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>Important Dates to Remember
+🏝️ Mid-Term Break: Friday, February 14th – Monday, February 17th, 2026. (A period for rest and intensive personal revision.)
+✍️ Main Examinations: Commencing Wednesday, March 25th, 2026. (All academic activities for the term will culminate on this date.)</t>
+  </si>
+  <si>
+    <t>exams</t>
+  </si>
+  <si>
+    <t>Mandatory Guidelines for All Students
+⏰ Early Arrival: Students must be seated at least 15 minutes prior to the scheduled start time.
+👔 Uniform Compliance: You must appear in your full school uniform (Light Brown and Ash/Harsh).
+📵 Device Prohibition: Strictly no mobile phones, smartwatches, or electronic gadgets are permitted in the hall.
+💻 CBT Authentication: Access the computer system using only your authorized Student ID and Password.
+🤐 Absolute Silence: Talking, whispering, or gesturing is strictly prohibited once you enter the examination premises.
+🖋️ Stationery Supplies: Students must bring their own pens and pencils. Borrowing is not allowed to maintain order.
+🚫 Unauthorized Materials: No external papers, notes, or "expo" materials are allowed inside.
+🔚 Dismissal Procedure: Remain seated and silent until your script is collected or your CBT submission is officially confirmed by the invigilator.</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Principal: +234 813 103 2577 | Old GRA, Maiduguri</t>
+  </si>
+  <si>
+    <t>notices_data</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>🕊️ A Note to Our Community
+As we transition to this new system, we kindly ask all parents and students to sit patiently. Management is currently finalizing the next phase of updates and official notices. Please keep your notifications on and check the portal regularly.
+Thank you for your continued trust and cooperation.  — Management, Ruby Springfield College January 20, 2026</t>
+  </si>
+  <si>
+    <t>📢 ANNOUNCEMENT: 🏛️ RUBY SPRINGFIELD COLLEGE: DIGITAL LAUNCH THE WAIT IS OVER! 🚀</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +110,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,111 +437,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>news_title</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>📢 ANNOUNCEMENT: ELEVATING ACADEMIC EXCELLENCE AT OUR STATE-OF-THE-ART CBT CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>news_desc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>We are pleased to announce that our Computer-Based Testing (CBT) Center is fully optimized and ready for the 2026 examination cycle. As part of our commitment to academic integrity and technological advancement, the center has undergone significant upgrades to ensure a seamless testing experience for every student</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>calendar</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Important Dates to Remember
-🏝️ Mid-Term Break: Friday, February 14th – Monday, February 17th, 2026. (A period for rest and intensive personal revision.)
-✍️ Main Examinations: Commencing Wednesday, March 25th, 2026. (All academic activities for the term will culminate on this date.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>exams</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mandatory Guidelines for All Students
-⏰ Early Arrival: Students must be seated at least 15 minutes prior to the scheduled start time.
-👔 Uniform Compliance: You must appear in your full school uniform (Light Brown and Ash/Harsh).
-📵 Device Prohibition: Strictly no mobile phones, smartwatches, or electronic gadgets are permitted in the hall.
-💻 CBT Authentication: Access the computer system using only your authorized Student ID and Password.
-🤐 Absolute Silence: Talking, whispering, or gesturing is strictly prohibited once you enter the examination premises.
-🖋️ Stationery Supplies: Students must bring their own pens and pencils. Borrowing is not allowed to maintain order.
-🚫 Unauthorized Materials: No external papers, notes, or "expo" materials are allowed inside.
-🔚 Dismissal Procedure: Remain seated and silent until your script is collected or your CBT submission is officially confirmed by the invigilator.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Principal: +234 813 103 2577 | Old GRA, Maiduguri</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>notices_data</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
